--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/91/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/91/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2692692692692693</v>
+        <v>0.4461446144614462</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1595.595595595596</v>
+        <v>1847.034703470347</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07187187187187187</v>
+        <v>0.08272827282728273</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2392392392392392</v>
+        <v>0.1138113811381138</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.1061061061061</v>
+        <v>1057.885788578858</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>534.5345345345346</v>
+        <v>704.4104410441045</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>872.8728728728729</v>
+        <v>492.6570657065706</v>
       </c>
     </row>
   </sheetData>
